--- a/output/education_results.xlsx
+++ b/output/education_results.xlsx
@@ -11,17 +11,19 @@
     <sheet name="out_of_school" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ece" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="level1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="level2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="level3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Table of Content</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
+    <t xml:space="preserve">Analyse des enfants accédant à l'éducation</t>
   </si>
   <si>
     <t xml:space="preserve">Ensemble</t>
@@ -93,10 +95,10 @@
     <t xml:space="preserve">Urbain ou périurbain</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrières</t>
+    <t xml:space="preserve">Analyse des enfants n'ayant pas accès à l'éducation, OoS</t>
   </si>
   <si>
-    <t xml:space="preserve">child_marriage</t>
+    <t xml:space="preserve">Barrières</t>
   </si>
   <si>
     <t xml:space="preserve">costs</t>
@@ -114,7 +116,19 @@
     <t xml:space="preserve">Non-scolarisation</t>
   </si>
   <si>
+    <t xml:space="preserve">éducation pré-primaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profil de fréquentation scolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant un programme d'éducation préscolaire ou l'école primaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant l'école primaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil de fréquentation scolaire: primaire</t>
   </si>
   <si>
     <t xml:space="preserve">% d'enfants en âge de fréquenter l'école primaire ou plus</t>
@@ -122,16 +136,30 @@
   <si>
     <t xml:space="preserve">% d'enfants avec 2 ans de plus que l'âge prévu : primaire</t>
   </si>
+  <si>
+    <t xml:space="preserve">Profil de fréquentation scolaire: niveau intermédiaire -- secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil de fréquentation scolaire: secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% d'enfants en âge de secondaire actuellement scolarisés au secondaire ou plus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -266,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +332,16 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,22 +642,32 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="str">
-        <f>=HYPERLINK("#'access'!A1", "access")</f>
+        <f>=HYPERLINK("#'access'!A1", "Analyse des enfants accédant à l'éducation")</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="str">
-        <f>=HYPERLINK("#'out_of_school'!A1", "out_of_school")</f>
+        <f>=HYPERLINK("#'out_of_school'!A1", "Analyse des enfants n'ayant pas accès à l'éducation, OoS")</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="str">
-        <f>=HYPERLINK("#'ece'!A1", "ece")</f>
+        <f>=HYPERLINK("#'ece'!A1", "éducation pré-primaire")</f>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="str">
-        <f>=HYPERLINK("#'level1'!A1", "level1")</f>
+        <f>=HYPERLINK("#'level1'!A1", "Profil de fréquentation scolaire: primaire")</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="str">
+        <f>=HYPERLINK("#'level2'!A1", "Profil de fréquentation scolaire: niveau intermédiaire -- secondaire")</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="str">
+        <f>=HYPERLINK("#'level3'!A1", "Profil de fréquentation scolaire: secondaire")</f>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1909,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1946,10 +1994,9 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3">
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1957,11 +2004,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1969,11 +2014,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AC3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1981,81 +2024,68 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
     </row>
     <row r="4">
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="AA4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2" t="s">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AL4" s="2"/>
+      <c r="AK4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2074,28 +2104,28 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>14</v>
@@ -2110,28 +2140,28 @@
         <v>13</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>14</v>
@@ -2146,28 +2176,28 @@
         <v>13</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL5" s="2" t="s">
         <v>14</v>
@@ -2181,38 +2211,38 @@
       <c r="C6" s="20"/>
       <c r="D6" s="2"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="20"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
     <row r="7" outlineLevel="1" hidden="0">
@@ -2231,29 +2261,29 @@
       <c r="E7" s="21" t="n">
         <v>0.0225563909774436</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="21" t="n">
+        <v>0.81203007518797</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>399</v>
       </c>
-      <c r="G7" s="21" t="n">
-        <v>0.81203007518797</v>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="21" t="n">
+        <v>0.0200501253132832</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>399</v>
       </c>
-      <c r="I7" s="21" t="n">
-        <v>0.0200501253132832</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="21" t="n">
+        <v>0.0426065162907268</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>399</v>
       </c>
-      <c r="K7" s="21" t="n">
-        <v>0.0426065162907268</v>
-      </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="21" t="n">
+        <v>0.102756892230576</v>
+      </c>
+      <c r="M7" s="4" t="n">
         <v>399</v>
-      </c>
-      <c r="M7" s="21" t="n">
-        <v>0.102756892230576</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>399</v>
@@ -2267,29 +2297,29 @@
       <c r="Q7" s="21" t="n">
         <v>0.043010752688172</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="21" t="n">
+        <v>0.78494623655914</v>
+      </c>
+      <c r="S7" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="S7" s="21" t="n">
-        <v>0.78494623655914</v>
-      </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="21" t="n">
+        <v>0.0161290322580645</v>
+      </c>
+      <c r="U7" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="U7" s="21" t="n">
-        <v>0.0161290322580645</v>
-      </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="21" t="n">
+        <v>0.0591397849462366</v>
+      </c>
+      <c r="W7" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="W7" s="21" t="n">
-        <v>0.0591397849462366</v>
-      </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="21" t="n">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="Y7" s="4" t="n">
         <v>186</v>
-      </c>
-      <c r="Y7" s="21" t="n">
-        <v>0.0967741935483871</v>
       </c>
       <c r="Z7" s="4" t="n">
         <v>186</v>
@@ -2303,29 +2333,29 @@
       <c r="AC7" s="21" t="n">
         <v>0.00469483568075117</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="21" t="n">
+        <v>0.835680751173709</v>
+      </c>
+      <c r="AE7" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="AE7" s="21" t="n">
-        <v>0.835680751173709</v>
-      </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="21" t="n">
+        <v>0.0234741784037559</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="AG7" s="21" t="n">
-        <v>0.0234741784037559</v>
-      </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="21" t="n">
+        <v>0.028169014084507</v>
+      </c>
+      <c r="AI7" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="AI7" s="21" t="n">
-        <v>0.028169014084507</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="21" t="n">
+        <v>0.107981220657277</v>
+      </c>
+      <c r="AK7" s="4" t="n">
         <v>213</v>
-      </c>
-      <c r="AK7" s="21" t="n">
-        <v>0.107981220657277</v>
       </c>
       <c r="AL7" s="5" t="n">
         <v>213</v>
@@ -2334,22 +2364,22 @@
     <row r="8">
       <c r="C8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="O8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="X8" s="24"/>
       <c r="AA8" s="24"/>
       <c r="AC8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AK8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AJ8" s="24"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2359,38 +2389,38 @@
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="20"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
     </row>
     <row r="10" outlineLevel="1" hidden="0">
@@ -2409,29 +2439,29 @@
       <c r="E10" s="22" t="n">
         <v>0.0212014134275618</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="22" t="n">
+        <v>0.816254416961131</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>283</v>
       </c>
-      <c r="G10" s="22" t="n">
-        <v>0.816254416961131</v>
-      </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="22" t="n">
+        <v>0.0247349823321555</v>
+      </c>
+      <c r="I10" s="9" t="n">
         <v>283</v>
       </c>
-      <c r="I10" s="22" t="n">
-        <v>0.0247349823321555</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="22" t="n">
+        <v>0.0353356890459364</v>
+      </c>
+      <c r="K10" s="9" t="n">
         <v>283</v>
       </c>
-      <c r="K10" s="22" t="n">
-        <v>0.0353356890459364</v>
-      </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="22" t="n">
+        <v>0.102473498233216</v>
+      </c>
+      <c r="M10" s="9" t="n">
         <v>283</v>
-      </c>
-      <c r="M10" s="22" t="n">
-        <v>0.102473498233216</v>
       </c>
       <c r="N10" s="9" t="n">
         <v>283</v>
@@ -2445,29 +2475,29 @@
       <c r="Q10" s="22" t="n">
         <v>0.0393700787401575</v>
       </c>
-      <c r="R10" s="9" t="n">
+      <c r="R10" s="22" t="n">
+        <v>0.795275590551181</v>
+      </c>
+      <c r="S10" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="S10" s="22" t="n">
-        <v>0.795275590551181</v>
-      </c>
-      <c r="T10" s="9" t="n">
+      <c r="T10" s="22" t="n">
+        <v>0.0236220472440945</v>
+      </c>
+      <c r="U10" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="U10" s="22" t="n">
-        <v>0.0236220472440945</v>
-      </c>
-      <c r="V10" s="9" t="n">
+      <c r="V10" s="22" t="n">
+        <v>0.047244094488189</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="W10" s="22" t="n">
-        <v>0.047244094488189</v>
-      </c>
-      <c r="X10" s="9" t="n">
+      <c r="X10" s="22" t="n">
+        <v>0.094488188976378</v>
+      </c>
+      <c r="Y10" s="9" t="n">
         <v>127</v>
-      </c>
-      <c r="Y10" s="22" t="n">
-        <v>0.094488188976378</v>
       </c>
       <c r="Z10" s="9" t="n">
         <v>127</v>
@@ -2481,29 +2511,29 @@
       <c r="AC10" s="22" t="n">
         <v>0.00641025641025641</v>
       </c>
-      <c r="AD10" s="9" t="n">
+      <c r="AD10" s="22" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="AE10" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="AE10" s="22" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="AF10" s="9" t="n">
+      <c r="AF10" s="22" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+      <c r="AG10" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="AG10" s="22" t="n">
+      <c r="AH10" s="22" t="n">
         <v>0.0256410256410256</v>
       </c>
-      <c r="AH10" s="9" t="n">
+      <c r="AI10" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="AI10" s="22" t="n">
-        <v>0.0256410256410256</v>
-      </c>
-      <c r="AJ10" s="9" t="n">
+      <c r="AJ10" s="22" t="n">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="AK10" s="9" t="n">
         <v>156</v>
-      </c>
-      <c r="AK10" s="22" t="n">
-        <v>0.108974358974359</v>
       </c>
       <c r="AL10" s="11" t="n">
         <v>156</v>
@@ -2525,29 +2555,29 @@
       <c r="E11" s="23" t="n">
         <v>0.0258620689655172</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="23" t="n">
+        <v>0.801724137931034</v>
+      </c>
+      <c r="G11" s="10" t="n">
         <v>116</v>
       </c>
-      <c r="G11" s="23" t="n">
-        <v>0.801724137931034</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="23" t="n">
+        <v>0.00862068965517241</v>
+      </c>
+      <c r="I11" s="10" t="n">
         <v>116</v>
       </c>
-      <c r="I11" s="23" t="n">
-        <v>0.00862068965517241</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="23" t="n">
+        <v>0.0603448275862069</v>
+      </c>
+      <c r="K11" s="10" t="n">
         <v>116</v>
       </c>
-      <c r="K11" s="23" t="n">
-        <v>0.0603448275862069</v>
-      </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="23" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="M11" s="10" t="n">
         <v>116</v>
-      </c>
-      <c r="M11" s="23" t="n">
-        <v>0.103448275862069</v>
       </c>
       <c r="N11" s="10" t="n">
         <v>116</v>
@@ -2561,25 +2591,25 @@
       <c r="Q11" s="23" t="n">
         <v>0.0508474576271186</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="23" t="n">
+        <v>0.76271186440678</v>
+      </c>
+      <c r="S11" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="S11" s="23" t="n">
-        <v>0.76271186440678</v>
-      </c>
-      <c r="T11" s="10" t="n">
+      <c r="T11" s="23"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="23" t="n">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="W11" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="23" t="n">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="X11" s="10" t="n">
+      <c r="X11" s="23" t="n">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="Y11" s="10" t="n">
         <v>59</v>
-      </c>
-      <c r="Y11" s="23" t="n">
-        <v>0.101694915254237</v>
       </c>
       <c r="Z11" s="10" t="n">
         <v>59</v>
@@ -2591,51 +2621,51 @@
         <v>575</v>
       </c>
       <c r="AC11" s="23"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="23" t="n">
+      <c r="AD11" s="23" t="n">
         <v>0.842105263157895</v>
       </c>
-      <c r="AF11" s="10" t="n">
+      <c r="AE11" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="AG11" s="23" t="n">
+      <c r="AF11" s="23" t="n">
         <v>0.0175438596491228</v>
       </c>
-      <c r="AH11" s="10" t="n">
+      <c r="AG11" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="AI11" s="23" t="n">
+      <c r="AH11" s="23" t="n">
         <v>0.0350877192982456</v>
       </c>
-      <c r="AJ11" s="10" t="n">
+      <c r="AI11" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="AK11" s="23" t="n">
+      <c r="AJ11" s="23" t="n">
         <v>0.105263157894737</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AK11" s="10" t="n">
         <v>57</v>
       </c>
+      <c r="AL11" s="13"/>
     </row>
     <row r="12">
       <c r="C12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="O12" s="24"/>
       <c r="Q12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="X12" s="24"/>
       <c r="AA12" s="24"/>
       <c r="AC12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AK12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AJ12" s="24"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -2645,38 +2675,38 @@
       <c r="C13" s="20"/>
       <c r="D13" s="2"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="20"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
     <row r="14" outlineLevel="1" hidden="0">
@@ -2693,31 +2723,31 @@
         <v>740</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22" t="n">
+      <c r="F14" s="22" t="n">
         <v>0.80952380952381</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="G14" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="I14" s="22" t="n">
+      <c r="H14" s="22" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="I14" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="K14" s="22" t="n">
+      <c r="J14" s="22" t="n">
         <v>0.0238095238095238</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="K14" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="M14" s="22" t="n">
+      <c r="L14" s="22" t="n">
         <v>0.119047619047619</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="M14" s="9" t="n">
         <v>84</v>
       </c>
+      <c r="N14" s="9"/>
       <c r="O14" s="22" t="n">
         <v>0.114058355437666</v>
       </c>
@@ -2725,31 +2755,31 @@
         <v>377</v>
       </c>
       <c r="Q14" s="22"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="22" t="n">
+      <c r="R14" s="22" t="n">
         <v>0.789473684210526</v>
       </c>
-      <c r="T14" s="9" t="n">
+      <c r="S14" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="U14" s="22" t="n">
+      <c r="T14" s="22" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="V14" s="9" t="n">
+      <c r="U14" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="W14" s="22" t="n">
+      <c r="V14" s="22" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="W14" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="Y14" s="22" t="n">
+      <c r="X14" s="22" t="n">
         <v>0.105263157894737</v>
       </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Y14" s="9" t="n">
         <v>38</v>
       </c>
+      <c r="Z14" s="9"/>
       <c r="AA14" s="22" t="n">
         <v>0.129476584022039</v>
       </c>
@@ -2757,27 +2787,27 @@
         <v>363</v>
       </c>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="22" t="n">
+      <c r="AD14" s="22" t="n">
         <v>0.826086956521739</v>
       </c>
-      <c r="AF14" s="9" t="n">
+      <c r="AE14" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="AG14" s="22" t="n">
+      <c r="AF14" s="22" t="n">
         <v>0.0434782608695652</v>
       </c>
-      <c r="AH14" s="9" t="n">
+      <c r="AG14" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="22" t="n">
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="22" t="n">
         <v>0.130434782608696</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AK14" s="9" t="n">
         <v>46</v>
       </c>
+      <c r="AL14" s="11"/>
     </row>
     <row r="15" outlineLevel="1" hidden="0">
       <c r="A15" s="7" t="s">
@@ -2793,23 +2823,23 @@
         <v>171</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15"/>
-      <c r="G15" s="24" t="n">
+      <c r="F15" s="24" t="n">
         <v>0.958333333333333</v>
       </c>
-      <c r="H15" t="n">
+      <c r="G15" t="n">
         <v>24</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15"/>
-      <c r="K15" s="24"/>
-      <c r="L15"/>
-      <c r="M15" s="24" t="n">
+      <c r="H15" s="24"/>
+      <c r="I15"/>
+      <c r="J15" s="24"/>
+      <c r="K15"/>
+      <c r="L15" s="24" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>24</v>
       </c>
+      <c r="N15"/>
       <c r="O15" s="24" t="n">
         <v>0.141176470588235</v>
       </c>
@@ -2817,23 +2847,23 @@
         <v>85</v>
       </c>
       <c r="Q15" s="24"/>
-      <c r="R15"/>
-      <c r="S15" s="24" t="n">
+      <c r="R15" s="24" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="T15" t="n">
+      <c r="S15" t="n">
         <v>12</v>
       </c>
-      <c r="U15" s="24"/>
-      <c r="V15"/>
-      <c r="W15" s="24"/>
-      <c r="X15"/>
-      <c r="Y15" s="24" t="n">
+      <c r="T15" s="24"/>
+      <c r="U15"/>
+      <c r="V15" s="24"/>
+      <c r="W15"/>
+      <c r="X15" s="24" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Y15" t="n">
         <v>12</v>
       </c>
+      <c r="Z15"/>
       <c r="AA15" s="24" t="n">
         <v>0.13953488372093</v>
       </c>
@@ -2841,18 +2871,18 @@
         <v>86</v>
       </c>
       <c r="AC15" s="24"/>
-      <c r="AD15"/>
-      <c r="AE15" s="24" t="n">
+      <c r="AD15" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AE15" t="n">
         <v>12</v>
       </c>
-      <c r="AG15" s="24"/>
-      <c r="AH15"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15"/>
-      <c r="AK15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15"/>
       <c r="AL15" s="12"/>
     </row>
     <row r="16" outlineLevel="1" hidden="0">
@@ -2871,29 +2901,29 @@
       <c r="E16" s="24" t="n">
         <v>0.0687022900763359</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="24" t="n">
+        <v>0.740458015267176</v>
+      </c>
+      <c r="G16" t="n">
         <v>131</v>
       </c>
-      <c r="G16" s="24" t="n">
-        <v>0.740458015267176</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="H16" s="24" t="n">
+        <v>0.0152671755725191</v>
+      </c>
+      <c r="I16" t="n">
         <v>131</v>
       </c>
-      <c r="I16" s="24" t="n">
-        <v>0.0152671755725191</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="J16" s="24" t="n">
+        <v>0.0916030534351145</v>
+      </c>
+      <c r="K16" t="n">
         <v>131</v>
       </c>
-      <c r="K16" s="24" t="n">
-        <v>0.0916030534351145</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="L16" s="24" t="n">
+        <v>0.083969465648855</v>
+      </c>
+      <c r="M16" t="n">
         <v>131</v>
-      </c>
-      <c r="M16" s="24" t="n">
-        <v>0.083969465648855</v>
       </c>
       <c r="N16" t="n">
         <v>131</v>
@@ -2907,25 +2937,25 @@
       <c r="Q16" s="24" t="n">
         <v>0.125</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="24" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="S16" t="n">
         <v>64</v>
       </c>
-      <c r="S16" s="24" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="T16" s="24"/>
+      <c r="U16"/>
+      <c r="V16" s="24" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="W16" t="n">
         <v>64</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="V16"/>
-      <c r="W16" s="24" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="X16" s="24" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="Y16" t="n">
         <v>64</v>
-      </c>
-      <c r="Y16" s="24" t="n">
-        <v>0.046875</v>
       </c>
       <c r="Z16" t="n">
         <v>64</v>
@@ -2939,29 +2969,29 @@
       <c r="AC16" s="24" t="n">
         <v>0.0149253731343284</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="24" t="n">
+        <v>0.761194029850746</v>
+      </c>
+      <c r="AE16" t="n">
         <v>67</v>
       </c>
-      <c r="AE16" s="24" t="n">
-        <v>0.761194029850746</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="24" t="n">
+        <v>0.0298507462686567</v>
+      </c>
+      <c r="AG16" t="n">
         <v>67</v>
       </c>
-      <c r="AG16" s="24" t="n">
-        <v>0.0298507462686567</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="24" t="n">
+        <v>0.0746268656716418</v>
+      </c>
+      <c r="AI16" t="n">
         <v>67</v>
       </c>
-      <c r="AI16" s="24" t="n">
-        <v>0.0746268656716418</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="24" t="n">
+        <v>0.119402985074627</v>
+      </c>
+      <c r="AK16" t="n">
         <v>67</v>
-      </c>
-      <c r="AK16" s="24" t="n">
-        <v>0.119402985074627</v>
       </c>
       <c r="AL16" s="12" t="n">
         <v>67</v>
@@ -2981,31 +3011,31 @@
         <v>1357</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="23" t="n">
+      <c r="F17" s="23" t="n">
         <v>0.85</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="G17" s="10" t="n">
         <v>160</v>
       </c>
-      <c r="I17" s="23" t="n">
+      <c r="H17" s="23" t="n">
         <v>0.0125</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="I17" s="10" t="n">
         <v>160</v>
       </c>
-      <c r="K17" s="23" t="n">
+      <c r="J17" s="23" t="n">
         <v>0.01875</v>
       </c>
-      <c r="L17" s="10" t="n">
+      <c r="K17" s="10" t="n">
         <v>160</v>
       </c>
-      <c r="M17" s="23" t="n">
+      <c r="L17" s="23" t="n">
         <v>0.11875</v>
       </c>
-      <c r="N17" s="10" t="n">
+      <c r="M17" s="10" t="n">
         <v>160</v>
       </c>
+      <c r="N17" s="10"/>
       <c r="O17" s="23" t="n">
         <v>0.108695652173913</v>
       </c>
@@ -3013,31 +3043,31 @@
         <v>690</v>
       </c>
       <c r="Q17" s="23"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="23" t="n">
+      <c r="R17" s="23" t="n">
         <v>0.819444444444444</v>
       </c>
-      <c r="T17" s="10" t="n">
+      <c r="S17" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="U17" s="23" t="n">
+      <c r="T17" s="23" t="n">
         <v>0.0138888888888889</v>
       </c>
-      <c r="V17" s="10" t="n">
+      <c r="U17" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="W17" s="23" t="n">
+      <c r="V17" s="23" t="n">
         <v>0.0277777777777778</v>
       </c>
-      <c r="X17" s="10" t="n">
+      <c r="W17" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="Y17" s="23" t="n">
+      <c r="X17" s="23" t="n">
         <v>0.138888888888889</v>
       </c>
-      <c r="Z17" s="10" t="n">
+      <c r="Y17" s="10" t="n">
         <v>72</v>
       </c>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="23" t="n">
         <v>0.133433283358321</v>
       </c>
@@ -3045,98 +3075,95 @@
         <v>667</v>
       </c>
       <c r="AC17" s="23"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="23" t="n">
+      <c r="AD17" s="23" t="n">
         <v>0.875</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AE17" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="AG17" s="23" t="n">
+      <c r="AF17" s="23" t="n">
         <v>0.0113636363636364</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AG17" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="AI17" s="23" t="n">
+      <c r="AH17" s="23" t="n">
         <v>0.0113636363636364</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AI17" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="AK17" s="23" t="n">
+      <c r="AJ17" s="23" t="n">
         <v>0.102272727272727</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AK17" s="10" t="n">
         <v>88</v>
       </c>
+      <c r="AL17" s="13"/>
     </row>
     <row r="18">
       <c r="C18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="O18" s="24"/>
       <c r="Q18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="Y18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="X18" s="24"/>
       <c r="AA18" s="24"/>
       <c r="AC18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AK18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AJ18" s="24"/>
     </row>
     <row r="19">
       <c r="C19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="O19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="X19" s="24"/>
       <c r="AA19" s="24"/>
       <c r="AC19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AK19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AJ19" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="AC3:AL3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="AD3:AK3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="A6:AL6"/>
     <mergeCell ref="A9:AL9"/>
@@ -3157,7 +3184,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3206,438 +3233,20 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" outlineLevel="1" hidden="0">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>171</v>
-      </c>
-      <c r="E6" s="26" t="n">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>0.612903225806452</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>171</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I6" s="26" t="n">
-        <v>0.858823529411765</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="K6" s="26" t="n">
-        <v>0.858823529411765</v>
-      </c>
-      <c r="L6" s="26" t="n">
-        <v>0.612903225806452</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="O6" s="26" t="n">
-        <v>0.86046511627907</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="26" t="n">
-        <v>0.86046511627907</v>
-      </c>
-      <c r="R6" s="26" t="n">
-        <v>0.612903225806452</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" outlineLevel="1" hidden="0">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F9" s="27" t="n">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I9" s="27" t="n">
-        <v>0.826086956521739</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <v>0.826086956521739</v>
-      </c>
-      <c r="L9" s="27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O9" s="27" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P9" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="27" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1" hidden="0">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="28" t="n">
-        <v>0.893333333333333</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" s="28" t="n">
-        <v>0.893333333333333</v>
-      </c>
-      <c r="F10" s="28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>75</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I10" s="28" t="n">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="K10" s="28" t="n">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="L10" s="28" t="n">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="N10" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" s="28" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="P10" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="28" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="R10" s="28" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="S10" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A8:T8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3">
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -3649,11 +3258,11 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -3661,11 +3270,11 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -3673,11 +3282,11 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2"/>
     </row>
@@ -3748,23 +3357,23 @@
         <v>16</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="30"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="30"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="30"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" outlineLevel="1" hidden="0">
@@ -3772,96 +3381,96 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="31" t="n">
-        <v>0.879145173176124</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>0.859649122807018</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1357</v>
-      </c>
-      <c r="E7" s="31" t="n">
-        <v>0.877671333824613</v>
+        <v>171</v>
+      </c>
+      <c r="E7" s="26" t="n">
+        <v>0.859649122807018</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1357</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>0.0151133501259446</v>
+        <v>171</v>
+      </c>
+      <c r="G7" s="26" t="n">
+        <v>0.612903225806452</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>0.891304347826087</v>
+        <v>62</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>0.858823529411765</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>690</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>0.889855072463768</v>
+        <v>85</v>
+      </c>
+      <c r="K7" s="26" t="n">
+        <v>0.858823529411765</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>690</v>
-      </c>
-      <c r="M7" s="31" t="n">
-        <v>0.0162866449511401</v>
+        <v>85</v>
+      </c>
+      <c r="M7" s="26" t="n">
+        <v>0.612903225806452</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>614</v>
-      </c>
-      <c r="O7" s="31" t="n">
-        <v>0.866566716641679</v>
+        <v>31</v>
+      </c>
+      <c r="O7" s="26" t="n">
+        <v>0.86046511627907</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>667</v>
-      </c>
-      <c r="Q7" s="31" t="n">
-        <v>0.865067466266867</v>
+        <v>86</v>
+      </c>
+      <c r="Q7" s="26" t="n">
+        <v>0.86046511627907</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>667</v>
-      </c>
-      <c r="S7" s="31" t="n">
-        <v>0.0138648180242634</v>
+        <v>86</v>
+      </c>
+      <c r="S7" s="26" t="n">
+        <v>0.612903225806452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>577</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="30"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="30"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="30"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" outlineLevel="1" hidden="0">
@@ -3869,176 +3478,146 @@
         <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="I10" s="27" t="n">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="K10" s="27" t="n">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" s="27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="S10" s="27" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="T10" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="C10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="11"/>
     </row>
     <row r="11" outlineLevel="1" hidden="0">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="34" t="n">
-        <v>0.852631578947368</v>
-      </c>
-      <c r="D11" t="n">
-        <v>855</v>
-      </c>
-      <c r="E11" s="34" t="n">
-        <v>0.852631578947368</v>
-      </c>
-      <c r="F11" t="n">
-        <v>855</v>
-      </c>
-      <c r="G11" s="34" t="n">
-        <v>0.0246913580246914</v>
-      </c>
-      <c r="H11" t="n">
-        <v>729</v>
-      </c>
-      <c r="I11" s="34" t="n">
-        <v>0.872389791183295</v>
-      </c>
-      <c r="J11" t="n">
-        <v>431</v>
-      </c>
-      <c r="K11" s="34" t="n">
-        <v>0.872389791183295</v>
-      </c>
-      <c r="L11" t="n">
-        <v>431</v>
-      </c>
-      <c r="M11" s="34" t="n">
-        <v>0.0265957446808511</v>
-      </c>
-      <c r="N11" t="n">
-        <v>376</v>
-      </c>
-      <c r="O11" s="34" t="n">
-        <v>0.832547169811321</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424</v>
-      </c>
-      <c r="Q11" s="34" t="n">
-        <v>0.832547169811321</v>
-      </c>
-      <c r="R11" t="n">
-        <v>424</v>
-      </c>
-      <c r="S11" s="34" t="n">
-        <v>0.0226628895184136</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" outlineLevel="1" hidden="0">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="33" t="n">
-        <v>0.924151696606786</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>501</v>
-      </c>
-      <c r="E12" s="33" t="n">
-        <v>0.920159680638722</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>501</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="33" t="n">
-        <v>0.922779922779923</v>
-      </c>
-      <c r="J12" s="10" t="n">
-        <v>259</v>
-      </c>
-      <c r="K12" s="33" t="n">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>259</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="33" t="n">
-        <v>0.925619834710744</v>
-      </c>
-      <c r="P12" s="10" t="n">
-        <v>242</v>
-      </c>
-      <c r="Q12" s="33" t="n">
-        <v>0.921487603305785</v>
-      </c>
-      <c r="R12" s="10" t="n">
-        <v>242</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="13"/>
+      <c r="C11" s="28" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <v>0.893333333333333</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <v>0.897435897435897</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <v>0.897435897435897</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="M11" s="28" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="N11" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" s="28" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="P11" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="28" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="R11" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="S11" s="28" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13">
-      <c r="C13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="S13" s="34"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="S14" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4064,4 +3643,1267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" outlineLevel="1" hidden="0">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="31" t="n">
+        <v>0.879145173176124</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E7" s="31" t="n">
+        <v>0.877671333824613</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1357</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <v>0.0151133501259446</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>0.891304347826087</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>690</v>
+      </c>
+      <c r="K7" s="31" t="n">
+        <v>0.889855072463768</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>690</v>
+      </c>
+      <c r="M7" s="31" t="n">
+        <v>0.0162866449511401</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>614</v>
+      </c>
+      <c r="O7" s="31" t="n">
+        <v>0.866566716641679</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q7" s="31" t="n">
+        <v>0.865067466266867</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>667</v>
+      </c>
+      <c r="S7" s="31" t="n">
+        <v>0.0138648180242634</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" outlineLevel="1" hidden="0">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" outlineLevel="1" hidden="0">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="34" t="n">
+        <v>0.852631578947368</v>
+      </c>
+      <c r="D11" t="n">
+        <v>855</v>
+      </c>
+      <c r="E11" s="34" t="n">
+        <v>0.852631578947368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>855</v>
+      </c>
+      <c r="G11" s="34" t="n">
+        <v>0.0246913580246914</v>
+      </c>
+      <c r="H11" t="n">
+        <v>729</v>
+      </c>
+      <c r="I11" s="34" t="n">
+        <v>0.872389791183295</v>
+      </c>
+      <c r="J11" t="n">
+        <v>431</v>
+      </c>
+      <c r="K11" s="34" t="n">
+        <v>0.872389791183295</v>
+      </c>
+      <c r="L11" t="n">
+        <v>431</v>
+      </c>
+      <c r="M11" s="34" t="n">
+        <v>0.0265957446808511</v>
+      </c>
+      <c r="N11" t="n">
+        <v>376</v>
+      </c>
+      <c r="O11" s="34" t="n">
+        <v>0.832547169811321</v>
+      </c>
+      <c r="P11" t="n">
+        <v>424</v>
+      </c>
+      <c r="Q11" s="34" t="n">
+        <v>0.832547169811321</v>
+      </c>
+      <c r="R11" t="n">
+        <v>424</v>
+      </c>
+      <c r="S11" s="34" t="n">
+        <v>0.0226628895184136</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="1" hidden="0">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>0.924151696606786</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>501</v>
+      </c>
+      <c r="E12" s="33" t="n">
+        <v>0.920159680638722</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>501</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="33" t="n">
+        <v>0.922779922779923</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>259</v>
+      </c>
+      <c r="K12" s="33" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>259</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="33" t="n">
+        <v>0.925619834710744</v>
+      </c>
+      <c r="P12" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="Q12" s="33" t="n">
+        <v>0.921487603305785</v>
+      </c>
+      <c r="R12" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="S14" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A9:T9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" outlineLevel="1" hidden="0">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36" t="n">
+        <v>0.878378378378378</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>740</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>0.871621621621622</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>740</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>0.885941644562334</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>0.880636604774536</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="K7" s="36" t="n">
+        <v>0.870523415977961</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>363</v>
+      </c>
+      <c r="M7" s="36" t="n">
+        <v>0.862258953168044</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" outlineLevel="1" hidden="0">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" outlineLevel="1" hidden="0">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>0.856179775280899</v>
+      </c>
+      <c r="D11" t="n">
+        <v>445</v>
+      </c>
+      <c r="E11" s="39" t="n">
+        <v>0.851685393258427</v>
+      </c>
+      <c r="F11" t="n">
+        <v>445</v>
+      </c>
+      <c r="G11" s="39" t="n">
+        <v>0.853881278538813</v>
+      </c>
+      <c r="H11" t="n">
+        <v>219</v>
+      </c>
+      <c r="I11" s="39" t="n">
+        <v>0.849315068493151</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219</v>
+      </c>
+      <c r="K11" s="39" t="n">
+        <v>0.858407079646018</v>
+      </c>
+      <c r="L11" t="n">
+        <v>226</v>
+      </c>
+      <c r="M11" s="39" t="n">
+        <v>0.853982300884956</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="1" hidden="0">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="38" t="n">
+        <v>0.91156462585034</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="E12" s="38" t="n">
+        <v>0.901360544217687</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="G12" s="38" t="n">
+        <v>0.929936305732484</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>157</v>
+      </c>
+      <c r="I12" s="38" t="n">
+        <v>0.923566878980892</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>157</v>
+      </c>
+      <c r="K12" s="38" t="n">
+        <v>0.89051094890511</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="M12" s="38" t="n">
+        <v>0.875912408759124</v>
+      </c>
+      <c r="N12" s="13" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" outlineLevel="1" hidden="0">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="41" t="n">
+        <v>0.752740560292326</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>821</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>0.605359317904994</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>821</v>
+      </c>
+      <c r="G7" s="41" t="n">
+        <v>0.758215962441315</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>426</v>
+      </c>
+      <c r="I7" s="41" t="n">
+        <v>0.636150234741784</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>426</v>
+      </c>
+      <c r="K7" s="41" t="n">
+        <v>0.746835443037975</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="M7" s="41" t="n">
+        <v>0.572151898734177</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" outlineLevel="1" hidden="0">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" outlineLevel="1" hidden="0">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>0.739316239316239</v>
+      </c>
+      <c r="D11" t="n">
+        <v>468</v>
+      </c>
+      <c r="E11" s="44" t="n">
+        <v>0.544871794871795</v>
+      </c>
+      <c r="F11" t="n">
+        <v>468</v>
+      </c>
+      <c r="G11" s="44" t="n">
+        <v>0.755364806866953</v>
+      </c>
+      <c r="H11" t="n">
+        <v>233</v>
+      </c>
+      <c r="I11" s="44" t="n">
+        <v>0.579399141630901</v>
+      </c>
+      <c r="J11" t="n">
+        <v>233</v>
+      </c>
+      <c r="K11" s="44" t="n">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L11" t="n">
+        <v>235</v>
+      </c>
+      <c r="M11" s="44" t="n">
+        <v>0.51063829787234</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="1" hidden="0">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>0.769886363636364</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>352</v>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>0.684659090909091</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>352</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="K12" s="43" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="M12" s="43" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="N12" s="13" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="M14" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>